--- a/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
+++ b/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="7" t="n"/>
       <c r="F1" s="7" t="n"/>

--- a/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
+++ b/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="7" t="n"/>
       <c r="F1" s="7" t="n"/>

--- a/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
+++ b/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="7" t="n"/>
       <c r="F1" s="7" t="n"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="C14" s="15" t="n"/>
       <c r="D14" s="5" t="n">
-        <v>707.256</v>
+        <v>1266.597</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" s="20">
@@ -959,7 +959,7 @@
       </c>
       <c r="C15" s="15" t="n"/>
       <c r="D15" s="5" t="n">
-        <v>863.588</v>
+        <v>1546.566</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" s="20">
@@ -975,7 +975,7 @@
       </c>
       <c r="C16" s="15" t="n"/>
       <c r="D16" s="5" t="n">
-        <v>1014.597</v>
+        <v>1817.002</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" s="20" thickBot="1"/>
@@ -992,15 +992,15 @@
     <row r="32" ht="13.5" customHeight="1" s="20" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
+++ b/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="7" t="n"/>
       <c r="F1" s="7" t="n"/>

--- a/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
+++ b/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="7" t="n"/>
       <c r="F1" s="7" t="n"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="C14" s="15" t="n"/>
       <c r="D14" s="5" t="n">
-        <v>1266.597</v>
+        <v>707.256</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" s="20">
@@ -959,7 +959,7 @@
       </c>
       <c r="C15" s="15" t="n"/>
       <c r="D15" s="5" t="n">
-        <v>1546.566</v>
+        <v>863.588</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" s="20">
@@ -975,7 +975,7 @@
       </c>
       <c r="C16" s="15" t="n"/>
       <c r="D16" s="5" t="n">
-        <v>1817.002</v>
+        <v>1014.597</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" s="20" thickBot="1"/>
@@ -992,15 +992,15 @@
     <row r="32" ht="13.5" customHeight="1" s="20" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
+++ b/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="7" t="n"/>
       <c r="F1" s="7" t="n"/>
@@ -992,15 +992,15 @@
     <row r="32" ht="13.5" customHeight="1" s="20" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
+++ b/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="7" t="n"/>
       <c r="F1" s="7" t="n"/>
@@ -992,15 +992,15 @@
     <row r="32" ht="13.5" customHeight="1" s="20" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
+++ b/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="7" t="n"/>
       <c r="F1" s="7" t="n"/>
@@ -992,15 +992,15 @@
     <row r="32" ht="13.5" customHeight="1" s="20" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
+++ b/server/LISTAS/mi/TORNILLOS PUNTA MECHA FLANGEADA DISMAY.xlsx
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="7" t="n"/>
       <c r="F1" s="7" t="n"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="C14" s="15" t="n"/>
       <c r="D14" s="5" t="n">
-        <v>707.256</v>
+        <v>1266.597</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" s="20">
@@ -959,7 +959,7 @@
       </c>
       <c r="C15" s="15" t="n"/>
       <c r="D15" s="5" t="n">
-        <v>863.588</v>
+        <v>1546.566</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" s="20">
@@ -975,7 +975,7 @@
       </c>
       <c r="C16" s="15" t="n"/>
       <c r="D16" s="5" t="n">
-        <v>1014.597</v>
+        <v>1817.002</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" s="20" thickBot="1"/>
@@ -992,15 +992,15 @@
     <row r="32" ht="13.5" customHeight="1" s="20" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
